--- a/public/download/sample/Routes.xlsx
+++ b/public/download/sample/Routes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="7200"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="158">
   <si>
     <t>DD Code</t>
   </si>
@@ -49,6 +49,174 @@
     <t>Sun/Tue/Thu</t>
   </si>
   <si>
+    <t>MYMVAI01_ROUTE48</t>
+  </si>
+  <si>
+    <t>Akborngar</t>
+  </si>
+  <si>
+    <t>Akbarnagar Kurerpar Chaaysuti</t>
+  </si>
+  <si>
+    <t>Sat/Mon/Wed</t>
+  </si>
+  <si>
+    <t>MYMVAI01_ROUTE45</t>
+  </si>
+  <si>
+    <t>Ferighat</t>
+  </si>
+  <si>
+    <t>Ferighatgohrimarka road zia toran road Chandiber hospital</t>
+  </si>
+  <si>
+    <t>MYMVAI01_ROUTE46</t>
+  </si>
+  <si>
+    <t>Poltakanda</t>
+  </si>
+  <si>
+    <t>Poltakanda kalipur ramsonkorpur moheshpur</t>
+  </si>
+  <si>
+    <t>MYMVAI01_ROUTE49</t>
+  </si>
+  <si>
+    <t>Fatema Ramjan School Road</t>
+  </si>
+  <si>
+    <t>Nataler moor Fatema Ramjan School. gachtola ghat road rofiqul islam mohila college road</t>
+  </si>
+  <si>
+    <t>MYMVAI01_ROUTE50</t>
+  </si>
+  <si>
+    <t>Newtown Road</t>
+  </si>
+  <si>
+    <t>new town alshefa matrika kamalpur idgah road</t>
+  </si>
+  <si>
+    <t>MYMVAI01_ROUTE01</t>
+  </si>
+  <si>
+    <t>Mitali Market</t>
+  </si>
+  <si>
+    <t>Mitali Market Pouro New Market Yakub Super Market Chobighar ComplexLonchghatTeen Potty Road. Ranir Bazar Chawkbazar Bangabondhu Road.</t>
+  </si>
+  <si>
+    <t>MYMVAI01_ROUTE02</t>
+  </si>
+  <si>
+    <t>Ranir Bazar</t>
+  </si>
+  <si>
+    <t>Guripur ghat ranirbazar shahi masjid zillur rahman mohila College</t>
+  </si>
+  <si>
+    <t>MYMVAI01_ROUTE04</t>
+  </si>
+  <si>
+    <t>Dorjoy moor</t>
+  </si>
+  <si>
+    <t>Durjoy moor Rab Officer Samne</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>MYMVAI01_ROUTE14</t>
+  </si>
+  <si>
+    <t>Modderchar</t>
+  </si>
+  <si>
+    <t>Jia Toron Chandiber Hospital Ferigat ghorimarka Saban Khaler Mor guchamara Modderchar Bazar</t>
+  </si>
+  <si>
+    <t>MYMVAI01_ROUTE15</t>
+  </si>
+  <si>
+    <t>Chanpur</t>
+  </si>
+  <si>
+    <t>Pultakanda Mach BazarKalipur RamSankarpur Chandpur Gakulnagar AganagarBazarAnanda Bazar</t>
+  </si>
+  <si>
+    <t>MYMVAI01_ROUTE07</t>
+  </si>
+  <si>
+    <t>Shambupur</t>
+  </si>
+  <si>
+    <t>Panaullar char Ragunathpur Shivpur vhati Krishnonagar Daibarir Mor Relghayet Khandakar mor Pakkar Matha Jhorurmor Stedium</t>
+  </si>
+  <si>
+    <t>MYMVAI01_ROUTE08</t>
+  </si>
+  <si>
+    <t>Kalikaprasad</t>
+  </si>
+  <si>
+    <t>Kalikaprasad Bustand Adorshopara Chwalk Bazar munsibari Degerchar Chiddirchar Bazar Jograrchar</t>
+  </si>
+  <si>
+    <t>MYMVAI01_ROUTE12</t>
+  </si>
+  <si>
+    <t>Panchaboti</t>
+  </si>
+  <si>
+    <t>Panchaboti katerpul. Gainhati Relstation Coil Factorymor</t>
+  </si>
+  <si>
+    <t>MYMVAI01_ROUTE13</t>
+  </si>
+  <si>
+    <t>Simulkandi</t>
+  </si>
+  <si>
+    <t>Shimulkandibazar Srinagarbazar Srinagar puran bazar rajnagar kandipara rajakata</t>
+  </si>
+  <si>
+    <t>MYMVAI01_ROUTE05</t>
+  </si>
+  <si>
+    <t>Bovanipur</t>
+  </si>
+  <si>
+    <t>Tearirchar bhovanipur Rasulpur Sadekpur Mendipur Moutupi</t>
+  </si>
+  <si>
+    <t>MYMVAI01_ROUTE06</t>
+  </si>
+  <si>
+    <t>Manikdi</t>
+  </si>
+  <si>
+    <t>Chochara bazar Krishnanagar Vercitymor Poltakanda Gajaria Manikde Manikdee Natun Bazar Battola</t>
+  </si>
+  <si>
+    <t>MYMVAI01_ROUTE24</t>
+  </si>
+  <si>
+    <t>Amlapara</t>
+  </si>
+  <si>
+    <t>Luximpur Amlapara Gajonathpur Mattreka Kamolar Moor.Matrika Hospatil.</t>
+  </si>
+  <si>
+    <t>MYMVAI01_ROUTE25</t>
+  </si>
+  <si>
+    <t>Bhairabpur</t>
+  </si>
+  <si>
+    <t>Ice Company Moor Chanbandar Monamora Natal Moor Bhairabpur Dhakkin Jama Mosjid.</t>
+  </si>
+  <si>
     <t>MYMVAI02</t>
   </si>
   <si>
@@ -61,7 +229,121 @@
     <t>Bahadurpur Batshala Kastul Moshjidjam Bowbazar Jamtoli</t>
   </si>
   <si>
-    <t>Sat/Mon/Wed</t>
+    <t>MYMVAI02_ROUTE0002</t>
+  </si>
+  <si>
+    <t>Astagram Sadar</t>
+  </si>
+  <si>
+    <t>Sadar Road Upazila Kurerpar Bangalpara Jetighat</t>
+  </si>
+  <si>
+    <t>MYMVAI02_ROUTE0003</t>
+  </si>
+  <si>
+    <t>Itna Sadar</t>
+  </si>
+  <si>
+    <t>Itna Lunchgat thana-upjela Itna Bazar</t>
+  </si>
+  <si>
+    <t>MYMVAI02_ROUTE0004</t>
+  </si>
+  <si>
+    <t>Elengjuri</t>
+  </si>
+  <si>
+    <t>Itna Natun Bazar Hatkulu Elengjuri</t>
+  </si>
+  <si>
+    <t>MYMVAI02_ROUTE0005</t>
+  </si>
+  <si>
+    <t>Mithamoin Sadar</t>
+  </si>
+  <si>
+    <t>Gupdigi Mithamoin Sadar daki mahmudpur</t>
+  </si>
+  <si>
+    <t>MYMVAI02_ROUTE0006</t>
+  </si>
+  <si>
+    <t>Gaghra bazar</t>
+  </si>
+  <si>
+    <t>Gaghra Keuarzor Gaghra Natun Bazar Hossenpur Dubachara Singpur</t>
+  </si>
+  <si>
+    <t>MYMVAI02_ROUTE0007</t>
+  </si>
+  <si>
+    <t>Dhaki Bazar</t>
+  </si>
+  <si>
+    <t>Dhaki Bazar Mahmudpur Athpasha Charigram Borumpur Chanpur.</t>
+  </si>
+  <si>
+    <t>MYMVAI02_ROUTE0008</t>
+  </si>
+  <si>
+    <t>Gopdighi Bazar</t>
+  </si>
+  <si>
+    <t>Gopdighi Islampur Dholai Bogadia Shingra Moshuria Kamalpur.</t>
+  </si>
+  <si>
+    <t>MYMVAI02_ROUTE0009</t>
+  </si>
+  <si>
+    <t>Dhonpur</t>
+  </si>
+  <si>
+    <t>Badla Pachhat boribari chiloni</t>
+  </si>
+  <si>
+    <t>MYMVAI02_ROUTE0010</t>
+  </si>
+  <si>
+    <t>Joysiddi</t>
+  </si>
+  <si>
+    <t>Gudamghar duiyearpar joysiddi Modirgao mriga amirganj</t>
+  </si>
+  <si>
+    <t>MYMVAI02_ROUTE0011</t>
+  </si>
+  <si>
+    <t>Bangalpara</t>
+  </si>
+  <si>
+    <t>Saviya Nagar Bangalpara Ali Nagor. Dheughor Balerchoor.</t>
+  </si>
+  <si>
+    <t>MYMVAI02_ROUTE0012</t>
+  </si>
+  <si>
+    <t>Akurdia</t>
+  </si>
+  <si>
+    <t>Akurdia Purbo Austogram Mohanthola Shapanto Kolma Adampur</t>
+  </si>
+  <si>
+    <t>MYMVAI02_ROUTE0013</t>
+  </si>
+  <si>
+    <t>Katkhal</t>
+  </si>
+  <si>
+    <t>Katkhal berati Bazar</t>
+  </si>
+  <si>
+    <t>MYMVAI02_ROUTE0014</t>
+  </si>
+  <si>
+    <t>Abdullahpur</t>
+  </si>
+  <si>
+    <t>Hemontoganj Kumri Kadamchal Khaiyerpur Abdullapur Kalimpur</t>
   </si>
   <si>
     <t>MYMVAI03</t>
@@ -74,6 +356,138 @@
   </si>
   <si>
     <t>Mothurapur Koylag Moor Koylag Bangla Bazar Puiri</t>
+  </si>
+  <si>
+    <t>MYMVAI03_ROUTE0002</t>
+  </si>
+  <si>
+    <t>Gazirchar</t>
+  </si>
+  <si>
+    <t>Borkharchar Kapasatia Najirdighi Boradhul Noapara Bazar Gazirchar Shahjalal Bazar</t>
+  </si>
+  <si>
+    <t>MYMVAI03_ROUTE0015</t>
+  </si>
+  <si>
+    <t>Bazra</t>
+  </si>
+  <si>
+    <t>Bazra Bus Stand Tarakandi Dariakandi Steel Bridge</t>
+  </si>
+  <si>
+    <t>MYMVAI03_ROUTE0016</t>
+  </si>
+  <si>
+    <t>Laxmipur</t>
+  </si>
+  <si>
+    <t>MYMVAI03_ROUTE0003</t>
+  </si>
+  <si>
+    <t>Bajitpur Sadar</t>
+  </si>
+  <si>
+    <t>MP Market Haji Elias Road BasmoholKoilag Mothurapur</t>
+  </si>
+  <si>
+    <t>MYMVAI03_ROUTE0004</t>
+  </si>
+  <si>
+    <t>Agorpur Bazar</t>
+  </si>
+  <si>
+    <t>Agorpur Bazar Borsora Jamtoli Chowmuri Usmanpur</t>
+  </si>
+  <si>
+    <t>MYMVAI03_ROUTE0005</t>
+  </si>
+  <si>
+    <t>Pirijpur</t>
+  </si>
+  <si>
+    <t>Pirijpur Agorpur Siddirmor</t>
+  </si>
+  <si>
+    <t>MYMVAI03_ROUTE0006</t>
+  </si>
+  <si>
+    <t>Hilochia</t>
+  </si>
+  <si>
+    <t>Gayanpur Hilochia gurui Chatirchar</t>
+  </si>
+  <si>
+    <t>MYMVAI03_ROUTE0007</t>
+  </si>
+  <si>
+    <t>Vagolpur</t>
+  </si>
+  <si>
+    <t>Vagolpur bustand Roshi Market Relstation. Medical Fair Service pakkar matha Thanar Road</t>
+  </si>
+  <si>
+    <t>MYMVAI03_ROUTE0008</t>
+  </si>
+  <si>
+    <t>Jamtoli-Gojaria</t>
+  </si>
+  <si>
+    <t>Jamtoli Gojaria Ujanchar Bangla Bazar Board Bazar Halimpur</t>
+  </si>
+  <si>
+    <t>MYMVAI03_ROUTE0009</t>
+  </si>
+  <si>
+    <t>Sararchar</t>
+  </si>
+  <si>
+    <t>Sararchar Itkhula bagpara Halimpur Endyrdiya</t>
+  </si>
+  <si>
+    <t>MYMVAI03_ROUTE0010</t>
+  </si>
+  <si>
+    <t>Boliardi</t>
+  </si>
+  <si>
+    <t>Bottola Akhrabazar Boliardi guradara dilalpur nuahati Hospital Nouapara</t>
+  </si>
+  <si>
+    <t>MYMVAI03_ROUTE0011</t>
+  </si>
+  <si>
+    <t>Digirpar</t>
+  </si>
+  <si>
+    <t>Board Bazar MPghat Patulli Digirpar humayunpur Aynargup</t>
+  </si>
+  <si>
+    <t>MYMVAI03_ROUTE0012</t>
+  </si>
+  <si>
+    <t>Kuliarchar South</t>
+  </si>
+  <si>
+    <t>Stil Bridge Asrobpur Kuliarcharbusstand Coaldstore Relstation Dakbangla Masjid Market tinpotti Rajcenema</t>
+  </si>
+  <si>
+    <t>MYMVAI03_ROUTE0013</t>
+  </si>
+  <si>
+    <t>Kamalerchar</t>
+  </si>
+  <si>
+    <t>Kamalerchar Luximpur Bot Tola Jaforabad</t>
+  </si>
+  <si>
+    <t>MYMVAI03_ROUTE0014</t>
+  </si>
+  <si>
+    <t>Dumrakanda</t>
+  </si>
+  <si>
+    <t>Dariakandi Bustand Dumrakanda Bazar Mujrai Salua Anamukhdua Bazar Khidirpur Faridpur majar Faridpur Ananda Bazar</t>
   </si>
 </sst>
 </file>
@@ -81,10 +495,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -116,11 +530,25 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,7 +560,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,61 +590,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,20 +613,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -244,6 +629,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -253,6 +653,20 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -269,31 +683,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,37 +845,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,109 +857,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,35 +892,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,17 +922,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +960,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -580,148 +994,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -736,65 +1150,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1063,21 +1477,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.22222222222222" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.2222222222222" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.8888888888889" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.2222222222222" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5555555555556" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="59.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7142857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88571428571429" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1096,63 +1510,845 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
